--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_36ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_36ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1602,28 +1602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>263.6980483188628</v>
+        <v>361.5490956035654</v>
       </c>
       <c r="AB2" t="n">
-        <v>360.8033032467072</v>
+        <v>494.6874230251732</v>
       </c>
       <c r="AC2" t="n">
-        <v>326.3687423754572</v>
+        <v>447.4751496698087</v>
       </c>
       <c r="AD2" t="n">
-        <v>263698.0483188628</v>
+        <v>361549.0956035655</v>
       </c>
       <c r="AE2" t="n">
-        <v>360803.3032467072</v>
+        <v>494687.4230251732</v>
       </c>
       <c r="AF2" t="n">
         <v>8.448823466720593e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.57638888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>326368.7423754572</v>
+        <v>447475.1496698087</v>
       </c>
     </row>
     <row r="3">
@@ -1708,28 +1708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>207.5318080261167</v>
+        <v>276.0183025296341</v>
       </c>
       <c r="AB3" t="n">
-        <v>283.954175398398</v>
+        <v>377.6604185891397</v>
       </c>
       <c r="AC3" t="n">
-        <v>256.8539874306465</v>
+        <v>341.6170382887179</v>
       </c>
       <c r="AD3" t="n">
-        <v>207531.8080261167</v>
+        <v>276018.3025296341</v>
       </c>
       <c r="AE3" t="n">
-        <v>283954.175398398</v>
+        <v>377660.4185891398</v>
       </c>
       <c r="AF3" t="n">
         <v>1.040752284642835e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.08101851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>256853.9874306465</v>
+        <v>341617.0382887179</v>
       </c>
     </row>
   </sheetData>
@@ -2005,28 +2005,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>217.9487794859709</v>
+        <v>295.3258528791341</v>
       </c>
       <c r="AB2" t="n">
-        <v>298.2071353141096</v>
+        <v>404.0778607663308</v>
       </c>
       <c r="AC2" t="n">
-        <v>269.7466648561622</v>
+        <v>365.5132368616308</v>
       </c>
       <c r="AD2" t="n">
-        <v>217948.7794859709</v>
+        <v>295325.8528791341</v>
       </c>
       <c r="AE2" t="n">
-        <v>298207.1353141096</v>
+        <v>404077.8607663308</v>
       </c>
       <c r="AF2" t="n">
         <v>1.070179263006451e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.04166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>269746.6648561622</v>
+        <v>365513.2368616309</v>
       </c>
     </row>
     <row r="3">
@@ -2111,28 +2111,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>203.332414640569</v>
+        <v>280.6753226149512</v>
       </c>
       <c r="AB3" t="n">
-        <v>278.2083801041336</v>
+        <v>384.0323589230966</v>
       </c>
       <c r="AC3" t="n">
-        <v>251.6565627749905</v>
+        <v>347.3808495802763</v>
       </c>
       <c r="AD3" t="n">
-        <v>203332.414640569</v>
+        <v>280675.3226149512</v>
       </c>
       <c r="AE3" t="n">
-        <v>278208.3801041336</v>
+        <v>384032.3589230966</v>
       </c>
       <c r="AF3" t="n">
         <v>1.121651732515905e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.3125</v>
       </c>
       <c r="AH3" t="n">
-        <v>251656.5627749905</v>
+        <v>347380.8495802764</v>
       </c>
     </row>
   </sheetData>
@@ -2408,28 +2408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>216.3849130612546</v>
+        <v>300.5842487187959</v>
       </c>
       <c r="AB2" t="n">
-        <v>296.0673842788964</v>
+        <v>411.2726299382079</v>
       </c>
       <c r="AC2" t="n">
-        <v>267.8111286565895</v>
+        <v>372.021347361666</v>
       </c>
       <c r="AD2" t="n">
-        <v>216384.9130612546</v>
+        <v>300584.2487187959</v>
       </c>
       <c r="AE2" t="n">
-        <v>296067.3842788964</v>
+        <v>411272.6299382079</v>
       </c>
       <c r="AF2" t="n">
         <v>1.352265433586188e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.73148148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>267811.1286565895</v>
+        <v>372021.347361666</v>
       </c>
     </row>
   </sheetData>
@@ -2705,28 +2705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>207.8845028971802</v>
+        <v>283.6777441173094</v>
       </c>
       <c r="AB2" t="n">
-        <v>284.4367480807863</v>
+        <v>388.1404044801114</v>
       </c>
       <c r="AC2" t="n">
-        <v>257.2905040535229</v>
+        <v>351.0968290350079</v>
       </c>
       <c r="AD2" t="n">
-        <v>207884.5028971802</v>
+        <v>283677.7441173094</v>
       </c>
       <c r="AE2" t="n">
-        <v>284436.7480807863</v>
+        <v>388140.4044801114</v>
       </c>
       <c r="AF2" t="n">
         <v>1.267605991812385e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.37731481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>257290.5040535229</v>
+        <v>351096.8290350079</v>
       </c>
     </row>
   </sheetData>
@@ -3002,28 +3002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>237.1156193574942</v>
+        <v>329.6280512692688</v>
       </c>
       <c r="AB2" t="n">
-        <v>324.4320512076116</v>
+        <v>451.0116419099022</v>
       </c>
       <c r="AC2" t="n">
-        <v>293.4687115836973</v>
+        <v>407.9677238048355</v>
       </c>
       <c r="AD2" t="n">
-        <v>237115.6193574941</v>
+        <v>329628.0512692688</v>
       </c>
       <c r="AE2" t="n">
-        <v>324432.0512076116</v>
+        <v>451011.6419099022</v>
       </c>
       <c r="AF2" t="n">
         <v>1.391684315710938e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.72222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>293468.7115836972</v>
+        <v>407967.7238048355</v>
       </c>
     </row>
   </sheetData>
@@ -3299,28 +3299,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>223.6786929886002</v>
+        <v>311.0248858592631</v>
       </c>
       <c r="AB2" t="n">
-        <v>306.0470557543462</v>
+        <v>425.5579702821976</v>
       </c>
       <c r="AC2" t="n">
-        <v>276.8383542929824</v>
+        <v>384.9433148728264</v>
       </c>
       <c r="AD2" t="n">
-        <v>223678.6929886002</v>
+        <v>311024.8858592631</v>
       </c>
       <c r="AE2" t="n">
-        <v>306047.0557543462</v>
+        <v>425557.9702821976</v>
       </c>
       <c r="AF2" t="n">
         <v>1.008678181346559e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.60879629629629</v>
       </c>
       <c r="AH2" t="n">
-        <v>276838.3542929824</v>
+        <v>384943.3148728264</v>
       </c>
     </row>
     <row r="3">
@@ -3405,28 +3405,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>204.2134252171263</v>
+        <v>281.7833695812577</v>
       </c>
       <c r="AB3" t="n">
-        <v>279.4138176424221</v>
+        <v>385.5484376659792</v>
       </c>
       <c r="AC3" t="n">
-        <v>252.7469550464675</v>
+        <v>348.7522358957682</v>
       </c>
       <c r="AD3" t="n">
-        <v>204213.4252171263</v>
+        <v>281783.3695812577</v>
       </c>
       <c r="AE3" t="n">
-        <v>279413.8176424222</v>
+        <v>385548.4376659793</v>
       </c>
       <c r="AF3" t="n">
         <v>1.100998811871596e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.21990740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>252746.9550464675</v>
+        <v>348752.2358957682</v>
       </c>
     </row>
   </sheetData>
@@ -3702,28 +3702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>258.301599811572</v>
+        <v>359.2848165795003</v>
       </c>
       <c r="AB2" t="n">
-        <v>353.4196443245261</v>
+        <v>491.5893365715066</v>
       </c>
       <c r="AC2" t="n">
-        <v>319.6897694977787</v>
+        <v>444.6727402390883</v>
       </c>
       <c r="AD2" t="n">
-        <v>258301.599811572</v>
+        <v>359284.8165795003</v>
       </c>
       <c r="AE2" t="n">
-        <v>353419.6443245261</v>
+        <v>491589.3365715066</v>
       </c>
       <c r="AF2" t="n">
         <v>1.398615680036731e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.48148148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>319689.7694977787</v>
+        <v>444672.7402390884</v>
       </c>
     </row>
   </sheetData>
@@ -3999,28 +3999,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>200.1603491476315</v>
+        <v>276.8678994163783</v>
       </c>
       <c r="AB2" t="n">
-        <v>273.8682201550456</v>
+        <v>378.8228745311525</v>
       </c>
       <c r="AC2" t="n">
-        <v>247.7306215999894</v>
+        <v>342.6685510671421</v>
       </c>
       <c r="AD2" t="n">
-        <v>200160.3491476314</v>
+        <v>276867.8994163783</v>
       </c>
       <c r="AE2" t="n">
-        <v>273868.2201550456</v>
+        <v>378822.8745311525</v>
       </c>
       <c r="AF2" t="n">
         <v>1.192391563140966e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.65972222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>247730.6215999894</v>
+        <v>342668.5510671421</v>
       </c>
     </row>
     <row r="3">
@@ -4105,28 +4105,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>200.3996073466736</v>
+        <v>277.1071576154205</v>
       </c>
       <c r="AB3" t="n">
-        <v>274.1955837783018</v>
+        <v>379.1502381544088</v>
       </c>
       <c r="AC3" t="n">
-        <v>248.0267420984999</v>
+        <v>342.9646715656526</v>
       </c>
       <c r="AD3" t="n">
-        <v>200399.6073466736</v>
+        <v>277107.1576154205</v>
       </c>
       <c r="AE3" t="n">
-        <v>274195.5837783018</v>
+        <v>379150.2381544088</v>
       </c>
       <c r="AF3" t="n">
         <v>1.192569038375315e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.65972222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>248026.7420984998</v>
+        <v>342964.6715656526</v>
       </c>
     </row>
   </sheetData>
@@ -4402,28 +4402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>204.2957334765355</v>
+        <v>281.5044569439776</v>
       </c>
       <c r="AB2" t="n">
-        <v>279.52643543413</v>
+        <v>385.1668170908955</v>
       </c>
       <c r="AC2" t="n">
-        <v>252.8488247541948</v>
+        <v>348.4070366527627</v>
       </c>
       <c r="AD2" t="n">
-        <v>204295.7334765355</v>
+        <v>281504.4569439776</v>
       </c>
       <c r="AE2" t="n">
-        <v>279526.43543413</v>
+        <v>385166.8170908955</v>
       </c>
       <c r="AF2" t="n">
         <v>1.119009883455591e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.75231481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>252848.8247541948</v>
+        <v>348407.0366527627</v>
       </c>
     </row>
     <row r="3">
@@ -4508,28 +4508,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>202.1968948542667</v>
+        <v>279.3041330952235</v>
       </c>
       <c r="AB3" t="n">
-        <v>276.6547118369181</v>
+        <v>382.1562369295929</v>
       </c>
       <c r="AC3" t="n">
-        <v>250.2511744266106</v>
+        <v>345.683782036679</v>
       </c>
       <c r="AD3" t="n">
-        <v>202196.8948542667</v>
+        <v>279304.1330952235</v>
       </c>
       <c r="AE3" t="n">
-        <v>276654.7118369181</v>
+        <v>382156.2369295929</v>
       </c>
       <c r="AF3" t="n">
         <v>1.144716743784846e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.39351851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>250251.1744266106</v>
+        <v>345683.782036679</v>
       </c>
     </row>
   </sheetData>
@@ -4805,28 +4805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>246.4728490825556</v>
+        <v>344.0328680127089</v>
       </c>
       <c r="AB2" t="n">
-        <v>337.2350257292749</v>
+        <v>470.7209476739407</v>
       </c>
       <c r="AC2" t="n">
-        <v>305.0497881861046</v>
+        <v>425.7960010889385</v>
       </c>
       <c r="AD2" t="n">
-        <v>246472.8490825556</v>
+        <v>344032.868012709</v>
       </c>
       <c r="AE2" t="n">
-        <v>337235.0257292749</v>
+        <v>470720.9476739407</v>
       </c>
       <c r="AF2" t="n">
         <v>8.966570707455542e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.87037037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>305049.7881861047</v>
+        <v>425796.0010889384</v>
       </c>
     </row>
     <row r="3">
@@ -4911,28 +4911,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>206.8996527217599</v>
+        <v>284.9008473094468</v>
       </c>
       <c r="AB3" t="n">
-        <v>283.0892326222536</v>
+        <v>389.8139082270983</v>
       </c>
       <c r="AC3" t="n">
-        <v>256.0715935791023</v>
+        <v>352.6106159331596</v>
       </c>
       <c r="AD3" t="n">
-        <v>206899.6527217599</v>
+        <v>284900.8473094468</v>
       </c>
       <c r="AE3" t="n">
-        <v>283089.2326222537</v>
+        <v>389813.9082270983</v>
       </c>
       <c r="AF3" t="n">
         <v>1.055061687276412e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.18518518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>256071.5935791024</v>
+        <v>352610.6159331596</v>
       </c>
     </row>
   </sheetData>
@@ -5208,28 +5208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>208.5049613629608</v>
+        <v>284.5955774689074</v>
       </c>
       <c r="AB2" t="n">
-        <v>285.2856867263625</v>
+        <v>389.3962245637175</v>
       </c>
       <c r="AC2" t="n">
-        <v>258.0584211862584</v>
+        <v>352.2327954123891</v>
       </c>
       <c r="AD2" t="n">
-        <v>208504.9613629608</v>
+        <v>284595.5774689075</v>
       </c>
       <c r="AE2" t="n">
-        <v>285285.6867263625</v>
+        <v>389396.2245637174</v>
       </c>
       <c r="AF2" t="n">
         <v>1.241094981644334e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.09953703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>258058.4211862584</v>
+        <v>352232.7954123891</v>
       </c>
     </row>
   </sheetData>
@@ -5505,28 +5505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>216.558031627946</v>
+        <v>301.0649467192848</v>
       </c>
       <c r="AB2" t="n">
-        <v>296.3042527392956</v>
+        <v>411.9303421493757</v>
       </c>
       <c r="AC2" t="n">
-        <v>268.0253907235753</v>
+        <v>372.6162884425049</v>
       </c>
       <c r="AD2" t="n">
-        <v>216558.031627946</v>
+        <v>301064.9467192848</v>
       </c>
       <c r="AE2" t="n">
-        <v>296304.2527392957</v>
+        <v>411930.3421493757</v>
       </c>
       <c r="AF2" t="n">
         <v>1.323371987507853e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.16435185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>268025.3907235753</v>
+        <v>372616.2884425049</v>
       </c>
     </row>
   </sheetData>
@@ -8815,28 +8815,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>226.2963243900028</v>
+        <v>319.3218331477479</v>
       </c>
       <c r="AB2" t="n">
-        <v>309.6286145194906</v>
+        <v>436.9102195977833</v>
       </c>
       <c r="AC2" t="n">
-        <v>280.0780941163319</v>
+        <v>395.2121214467147</v>
       </c>
       <c r="AD2" t="n">
-        <v>226296.3243900028</v>
+        <v>319321.8331477479</v>
       </c>
       <c r="AE2" t="n">
-        <v>309628.6145194906</v>
+        <v>436910.2195977833</v>
       </c>
       <c r="AF2" t="n">
         <v>1.375941953962848e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.54166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>280078.0941163319</v>
+        <v>395212.1214467147</v>
       </c>
     </row>
   </sheetData>
@@ -9112,28 +9112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>292.0608656470782</v>
+        <v>410.5570011067538</v>
       </c>
       <c r="AB2" t="n">
-        <v>399.6105611943613</v>
+        <v>561.7422014108345</v>
       </c>
       <c r="AC2" t="n">
-        <v>361.4722900909157</v>
+        <v>508.130314118315</v>
       </c>
       <c r="AD2" t="n">
-        <v>292060.8656470783</v>
+        <v>410557.0011067538</v>
       </c>
       <c r="AE2" t="n">
-        <v>399610.5611943613</v>
+        <v>561742.2014108344</v>
       </c>
       <c r="AF2" t="n">
         <v>1.367247490498907e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.67592592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>361472.2900909157</v>
+        <v>508130.314118315</v>
       </c>
     </row>
   </sheetData>
@@ -9409,28 +9409,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>201.8080919197256</v>
+        <v>278.7715734574656</v>
       </c>
       <c r="AB2" t="n">
-        <v>276.1227345091044</v>
+        <v>381.4275653383395</v>
       </c>
       <c r="AC2" t="n">
-        <v>249.7699682683283</v>
+        <v>345.0246538393978</v>
       </c>
       <c r="AD2" t="n">
-        <v>201808.0919197256</v>
+        <v>278771.5734574656</v>
       </c>
       <c r="AE2" t="n">
-        <v>276122.7345091044</v>
+        <v>381427.5653383395</v>
       </c>
       <c r="AF2" t="n">
         <v>1.159999795287617e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.625</v>
       </c>
       <c r="AH2" t="n">
-        <v>249769.9682683283</v>
+        <v>345024.6538393978</v>
       </c>
     </row>
     <row r="3">
@@ -9515,28 +9515,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>201.2315884193373</v>
+        <v>278.1950699570774</v>
       </c>
       <c r="AB3" t="n">
-        <v>275.3339369863341</v>
+        <v>380.6387678155688</v>
       </c>
       <c r="AC3" t="n">
-        <v>249.0564524740467</v>
+        <v>344.3111380451161</v>
       </c>
       <c r="AD3" t="n">
-        <v>201231.5884193373</v>
+        <v>278195.0699570773</v>
       </c>
       <c r="AE3" t="n">
-        <v>275333.9369863341</v>
+        <v>380638.7678155688</v>
       </c>
       <c r="AF3" t="n">
         <v>1.168815787468221e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.50925925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>249056.4524740467</v>
+        <v>344311.1380451161</v>
       </c>
     </row>
   </sheetData>
@@ -9812,28 +9812,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>240.3172682793077</v>
+        <v>327.8427421894648</v>
       </c>
       <c r="AB2" t="n">
-        <v>328.8126885092165</v>
+        <v>448.5689032646365</v>
       </c>
       <c r="AC2" t="n">
-        <v>297.4312670095014</v>
+        <v>405.7581167074687</v>
       </c>
       <c r="AD2" t="n">
-        <v>240317.2682793077</v>
+        <v>327842.7421894648</v>
       </c>
       <c r="AE2" t="n">
-        <v>328812.6885092165</v>
+        <v>448568.9032646365</v>
       </c>
       <c r="AF2" t="n">
         <v>9.471736546091841e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.29166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>297431.2670095014</v>
+        <v>405758.1167074687</v>
       </c>
     </row>
     <row r="3">
@@ -9918,28 +9918,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>205.2676822179774</v>
+        <v>273.3888293797758</v>
       </c>
       <c r="AB3" t="n">
-        <v>280.8562985815223</v>
+        <v>374.0626574213354</v>
       </c>
       <c r="AC3" t="n">
-        <v>254.0517676292751</v>
+        <v>338.3626423972794</v>
       </c>
       <c r="AD3" t="n">
-        <v>205267.6822179774</v>
+        <v>273388.8293797758</v>
       </c>
       <c r="AE3" t="n">
-        <v>280856.2985815223</v>
+        <v>374062.6574213354</v>
       </c>
       <c r="AF3" t="n">
         <v>1.08007878207582e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.16203703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>254051.7676292751</v>
+        <v>338362.6423972794</v>
       </c>
     </row>
   </sheetData>
@@ -10215,28 +10215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>370.9886582388044</v>
+        <v>524.4247064827744</v>
       </c>
       <c r="AB2" t="n">
-        <v>507.6030490668193</v>
+        <v>717.5410193949269</v>
       </c>
       <c r="AC2" t="n">
-        <v>459.1581264892352</v>
+        <v>649.0599115790201</v>
       </c>
       <c r="AD2" t="n">
-        <v>370988.6582388044</v>
+        <v>524424.7064827743</v>
       </c>
       <c r="AE2" t="n">
-        <v>507603.0490668193</v>
+        <v>717541.019394927</v>
       </c>
       <c r="AF2" t="n">
         <v>1.252731170392095e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.71296296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>459158.1264892352</v>
+        <v>649059.9115790201</v>
       </c>
     </row>
   </sheetData>
@@ -10512,28 +10512,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>207.2325119712195</v>
+        <v>292.186317297072</v>
       </c>
       <c r="AB2" t="n">
-        <v>283.5446653320777</v>
+        <v>399.7822096764188</v>
       </c>
       <c r="AC2" t="n">
-        <v>256.4835604303047</v>
+        <v>361.6275566827559</v>
       </c>
       <c r="AD2" t="n">
-        <v>207232.5119712195</v>
+        <v>292186.317297072</v>
       </c>
       <c r="AE2" t="n">
-        <v>283544.6653320777</v>
+        <v>399782.2096764188</v>
       </c>
       <c r="AF2" t="n">
         <v>1.296945079476558e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.70138888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>256483.5604303047</v>
+        <v>361627.5566827559</v>
       </c>
     </row>
   </sheetData>
@@ -10809,28 +10809,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>199.508641592416</v>
+        <v>285.4348422969564</v>
       </c>
       <c r="AB2" t="n">
-        <v>272.9765251266921</v>
+        <v>390.5445437272052</v>
       </c>
       <c r="AC2" t="n">
-        <v>246.9240286936398</v>
+        <v>353.2715206065897</v>
       </c>
       <c r="AD2" t="n">
-        <v>199508.641592416</v>
+        <v>285434.8422969565</v>
       </c>
       <c r="AE2" t="n">
-        <v>272976.5251266921</v>
+        <v>390544.5437272053</v>
       </c>
       <c r="AF2" t="n">
         <v>1.216437653857722e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.85648148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>246924.0286936398</v>
+        <v>353271.5206065897</v>
       </c>
     </row>
   </sheetData>
